--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsSleepStatusExtension.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsSleepStatusExtension.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsSleepStatusExtension</t>
+    <t>http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsSleepStatusExtension</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.5</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -344,7 +344,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ValueSet/NoDomainVitalSignsSleepStatusValueSet</t>
+    <t>http://hl7.no/fhir/no-domain/vitalsigns/ValueSet/NoDomainVitalSignsSleepStatusValueSet</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -695,7 +695,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.24609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="71.16796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsSleepStatusExtension.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsSleepStatusExtension.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsSleepStatusExtension.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsSleepStatusExtension.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsSleepStatusExtension.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsSleepStatusExtension.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsSleepStatusExtension.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsSleepStatusExtension.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.2</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
